--- a/similarities/split_global/harmonic_similarity_timestamps_403.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_403.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>jaah_47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A:7', 'E']]</t>
+          <t>['Db', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'F:7', 'C']]</t>
+          <t>['Gb', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:18.719002', '0:00:29.771700')]</t>
+          <t>('0:01:32.410000', '0:01:33.840000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.400000', '0:00:05.010000')]</t>
+          <t>('0:00:21.290000', '0:00:27.010000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=18.719002']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=92.41</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=0.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=21.29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_39</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:08.740000')]</t>
+          <t>('0:00:27.160000', '0:00:38.460000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:16.480000')]</t>
+          <t>('0:01:42.400000', '0:02:01.440000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7'], ['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7'], ['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:16.840000', '0:00:19.980000'), ('0:00:17.900000', '0:00:24.560000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:31.750000'), ('0:00:55.230000', '0:01:05.420000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=17.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>isophonics_28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'A:min'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min'], ['A', 'D', 'A']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:26.915000', '0:00:30.761000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:46.600000', '0:00:49.040000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.795551', '0:00:15.447641'), ('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:00', '0:00:15.865600')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=26.915', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=2.795551', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:02.430000')]</t>
+          <t>('0:00:08.700000', '0:00:26.220000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:04.871315', '0:01:12.777709')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'B:7/F#', 'E:min']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'B:7', 'E:min']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.200000', '0:00:05.880000')]</t>
+          <t>('0:00:41.895260', '0:00:54.712675')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.427000', '0:00:05.357000')]</t>
+          <t>('0:00:56.880000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=0.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=0.427']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=56.88</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'A#:maj/F']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:23.629455', '0:00:29.120975')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.200000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=23.629455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab']]</t>
+          <t>['Ab', 'Ab:7', 'Db:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb']]</t>
+          <t>['Eb', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:07.604557', '0:00:16.370090')]</t>
+          <t>('0:00:15.420000', '0:00:24.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:31.370000', '0:00:42.610000')]</t>
+          <t>('0:00:07.920000', '0:00:22.370000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=7.604557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=15.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=7.92</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.980000')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:20.672131')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min', 'A', 'D']]</t>
+          <t>['Gb', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min', 'C:maj', 'F:maj']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.435215', '0:00:13.822244')]</t>
+          <t>('0:00:03.810375', '0:00:16.004920')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:16.724000', '0:02:22.877000')]</t>
+          <t>('0:00:12.971000', '0:00:23.861000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-73#t=8.435215']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=3.810375</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=136.724']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=12.971</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['Db/2', 'Ab:maj', 'Ab:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'F:7/D#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:01:30.236000', '0:01:38.612000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+          <t>('0:01:03.740000', '0:01:09.060000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=90.236</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=63.74</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:38.200000', '0:00:39.980000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:05.440000', '0:01:06.820000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
+          <t>('0:00:00.360000', '0:00:05.600000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=63.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Gb:maj6', 'Ab:7', 'Db', 'Db:7']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:55.470000', '0:00:59.320000')]</t>
+          <t>('0:01:02.500000', '0:01:12.760000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:17.680000', '0:00:20.840000')]</t>
+          <t>('0:00:19.780000', '0:00:29.500000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=55.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=62.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
